--- a/build/jig/application.xlsx
+++ b/build/jig/application.xlsx
@@ -126,12 +126,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.87890625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.53125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -168,19 +168,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.04296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="23.04296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.2109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="24.87890625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="28.54296875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="30.37890625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="8.046875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="10.828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.7265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.41796875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.3046875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.53125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.76171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.87890625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="6.58984375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="9.5390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -238,14 +238,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.2109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.2265625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.53515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.61328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.36328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.3671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.359375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/build/jig/application.xlsx
+++ b/build/jig/application.xlsx
@@ -19,39 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t/>
   </si>
   <si>
-    <t>クラス名</t>
-  </si>
-  <si>
-    <t>メソッドシグネチャ</t>
-  </si>
-  <si>
-    <t>メソッド戻り値の型</t>
-  </si>
-  <si>
-    <t>クラス別名</t>
-  </si>
-  <si>
-    <t>使用しているフィールドの型</t>
+    <t>Class name</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Return type</t>
+  </si>
+  <si>
+    <t>Using field types</t>
   </si>
   <si>
     <t>パス</t>
   </si>
   <si>
-    <t>イベントハンドラ</t>
-  </si>
-  <si>
-    <t>メソッド別名</t>
-  </si>
-  <si>
-    <t>メソッド戻り値の型の別名</t>
-  </si>
-  <si>
-    <t>メソッド引数の型の別名</t>
+    <t>Event handler</t>
+  </si>
+  <si>
+    <t>Method name</t>
+  </si>
+  <si>
+    <t>Argument types</t>
   </si>
   <si>
     <t>使用しているサービスのメソッド</t>
@@ -126,12 +120,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.61328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.53125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.26953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.6484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="16.34765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.24609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -145,13 +139,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -168,19 +162,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.95703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="6.61328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.7265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.41796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.3046875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.53125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="17.76171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.87890625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="6.58984375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="9.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.8828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.6484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.8046875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.34765625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="17.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.6484375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="6.5859375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="9.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -194,34 +188,34 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -238,14 +232,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.61328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.36328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.3671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.359375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.921875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.6484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="7.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.4375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -259,19 +253,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
